--- a/Data/EC/NIT-9010615895.xlsx
+++ b/Data/EC/NIT-9010615895.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A602C8EA-1255-4124-92F4-01F8C87DB71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{203E3DA1-1396-44DD-B235-29550D193D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FAD04F96-CC56-44C3-BD47-E9A97B83DE60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{57205C02-CCC3-49FF-8C9D-A3F76D577E33}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="94">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,199 +71,220 @@
     <t>LUIS FERNANDO MAURY PADILLA</t>
   </si>
   <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
     <t>1707</t>
   </si>
   <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
+    <t>1235042031</t>
+  </si>
+  <si>
+    <t>JIMMY ADRIAN SIERRA TEHERAN</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -307,7 +328,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,7 +698,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC4E08B-99C8-4627-1674-76C6140EB120}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6BB921-7EA9-AC25-0A4F-10B87B93D94D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,32 +1049,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE0D101-2CDC-4893-A1A1-1B3CA0EC0436}">
-  <dimension ref="B2:J86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4564564-627A-436F-88E5-AC7A0B7FC7BB}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1062,7 +1083,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1073,7 +1094,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1084,7 +1105,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1095,10 +1116,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1111,8 +1132,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1127,15 +1148,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1976618</v>
+        <v>2261318</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1143,27 +1164,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1183,16 +1204,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>1042</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1215,7 +1236,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1238,7 +1259,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1273,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>737717</v>
@@ -1261,7 +1282,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1275,7 +1296,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>737717</v>
@@ -1284,7 +1305,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>737717</v>
@@ -1307,7 +1328,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>737717</v>
@@ -1330,7 +1351,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>737717</v>
@@ -1353,7 +1374,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1388,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>737717</v>
@@ -1376,7 +1397,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>737717</v>
@@ -1399,7 +1420,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>737717</v>
@@ -1422,7 +1443,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1457,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>737717</v>
@@ -1445,7 +1466,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1480,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>737717</v>
@@ -1468,7 +1489,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1503,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>737717</v>
@@ -1491,7 +1512,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1505,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>737717</v>
@@ -1514,7 +1535,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1558,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1560,7 +1581,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1583,7 +1604,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1627,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1650,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1652,7 +1673,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1696,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1719,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1742,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1765,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1788,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1790,7 +1811,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1813,7 +1834,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1836,7 +1857,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1880,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1903,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1905,7 +1926,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1928,7 +1949,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1951,7 +1972,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +1995,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +2018,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2020,7 +2041,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2043,7 +2064,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +2087,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +2110,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2112,7 +2133,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2135,7 +2156,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2158,7 +2179,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2181,7 +2202,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +2225,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2227,7 +2248,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2250,7 +2271,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2273,7 +2294,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2317,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +2340,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2342,7 +2363,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2365,7 +2386,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2379,7 +2400,7 @@
         <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G67" s="18">
         <v>737717</v>
@@ -2388,7 +2409,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2402,7 +2423,7 @@
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G68" s="18">
         <v>737717</v>
@@ -2411,7 +2432,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2425,7 +2446,7 @@
         <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G69" s="18">
         <v>737717</v>
@@ -2434,7 +2455,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2448,7 +2469,7 @@
         <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G70" s="18">
         <v>737717</v>
@@ -2457,7 +2478,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2471,7 +2492,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G71" s="18">
         <v>737717</v>
@@ -2480,7 +2501,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2494,7 +2515,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G72" s="18">
         <v>737717</v>
@@ -2503,7 +2524,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2517,7 +2538,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
         <v>737717</v>
@@ -2526,7 +2547,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2540,7 +2561,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G74" s="18">
         <v>737717</v>
@@ -2549,7 +2570,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2563,7 +2584,7 @@
         <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G75" s="18">
         <v>737717</v>
@@ -2572,7 +2593,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2607,7 @@
         <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G76" s="18">
         <v>737717</v>
@@ -2595,7 +2616,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2609,7 +2630,7 @@
         <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G77" s="18">
         <v>737717</v>
@@ -2618,7 +2639,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2632,7 +2653,7 @@
         <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
         <v>737717</v>
@@ -2641,7 +2662,7 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2655,7 +2676,7 @@
         <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G79" s="18">
         <v>737717</v>
@@ -2664,57 +2685,172 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="22" t="s">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="24">
-        <v>1042</v>
-      </c>
-      <c r="G80" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="26"/>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="32"/>
-      <c r="H85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="H86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="F80" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G80" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G81" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G82" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G83" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G84" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G85" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="H90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="H91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H90:J90"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010615895.xlsx
+++ b/Data/EC/NIT-9010615895.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{203E3DA1-1396-44DD-B235-29550D193D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CC5CC0-2D6E-450F-9D48-F300250F4565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{57205C02-CCC3-49FF-8C9D-A3F76D577E33}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{87826429-6FC9-4207-8F96-5FD2E42D1EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="87">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,220 +71,199 @@
     <t>LUIS FERNANDO MAURY PADILLA</t>
   </si>
   <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1235042031</t>
-  </si>
-  <si>
-    <t>JIMMY ADRIAN SIERRA TEHERAN</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -328,7 +307,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,7 +362,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -396,9 +377,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -598,23 +577,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,10 +621,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,7 +677,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6BB921-7EA9-AC25-0A4F-10B87B93D94D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18360571-1C7F-5224-B59D-85910E74DDA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,32 +1028,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4564564-627A-436F-88E5-AC7A0B7FC7BB}">
-  <dimension ref="B2:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36BFBBA-1C1E-476E-82D6-7A85069C1887}">
+  <dimension ref="B2:J86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1083,7 +1062,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1094,7 +1073,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1105,7 +1084,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1116,10 +1095,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1132,8 +1111,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1148,15 +1127,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2261318</v>
+        <v>1976618</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1164,27 +1143,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F13" s="5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1204,16 +1183,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,16 +1206,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1042</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,16 +1229,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,16 +1252,16 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1296,16 +1275,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,16 +1298,16 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1342,16 +1321,16 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1365,16 +1344,16 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1388,16 +1367,16 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1411,16 +1390,16 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,16 +1413,16 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1457,16 +1436,16 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1480,16 +1459,16 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1503,16 +1482,16 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1526,16 +1505,16 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1552,13 +1531,13 @@
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1575,13 +1554,13 @@
         <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1598,13 +1577,13 @@
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1621,13 +1600,13 @@
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1644,13 +1623,13 @@
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1667,13 +1646,13 @@
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1690,13 +1669,13 @@
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1713,13 +1692,13 @@
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1736,13 +1715,13 @@
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1759,13 +1738,13 @@
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1782,13 +1761,13 @@
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1805,13 +1784,13 @@
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1828,13 +1807,13 @@
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1851,13 +1830,13 @@
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1874,13 +1853,13 @@
         <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1897,13 +1876,13 @@
         <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1920,13 +1899,13 @@
         <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1943,13 +1922,13 @@
         <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1966,13 +1945,13 @@
         <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1989,13 +1968,13 @@
         <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2012,13 +1991,13 @@
         <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2035,13 +2014,13 @@
         <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2058,13 +2037,13 @@
         <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2081,13 +2060,13 @@
         <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2104,13 +2083,13 @@
         <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2127,13 +2106,13 @@
         <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2150,13 +2129,13 @@
         <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2173,13 +2152,13 @@
         <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2196,13 +2175,13 @@
         <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2219,13 +2198,13 @@
         <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2242,13 +2221,13 @@
         <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2265,13 +2244,13 @@
         <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2288,13 +2267,13 @@
         <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2311,13 +2290,13 @@
         <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2334,13 +2313,13 @@
         <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2357,13 +2336,13 @@
         <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2380,13 +2359,13 @@
         <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2400,16 +2379,16 @@
         <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2423,16 +2402,16 @@
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2446,16 +2425,16 @@
         <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2469,16 +2448,16 @@
         <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2492,16 +2471,16 @@
         <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2515,16 +2494,16 @@
         <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2538,16 +2517,16 @@
         <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2561,16 +2540,16 @@
         <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2584,16 +2563,16 @@
         <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2607,16 +2586,16 @@
         <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2630,16 +2609,16 @@
         <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2653,16 +2632,16 @@
         <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2676,181 +2655,66 @@
         <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="16" t="s">
+    <row r="80" spans="2:10">
+      <c r="B80" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G80" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F81" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F83" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F84" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F85" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G85" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="32"/>
-      <c r="H90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="H91" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="F80" s="24">
+        <v>1042</v>
+      </c>
+      <c r="G80" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="26"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="32"/>
+      <c r="H85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="H86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H85:J85"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
